--- a/Excel文件/招式联动表.xlsx
+++ b/Excel文件/招式联动表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\新建文件夹 (2)\Excel文件8\Excel文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32427CB1-26D7-4AD4-A906-ABCDDAC3DE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4542F-6113-4033-B753-6F295DD48F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,10 +1393,6 @@
     <t>岳在渊</t>
   </si>
   <si>
-    <t>{"data":[{"Type":11,"Value1":"8700002","Value2":"0","Operator":"2"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原招式ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,6 +1418,10 @@
   </si>
   <si>
     <t>","Value2":"0","Operator":"2"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":[{"Type":11,"Value1":"8700008","Value2":"0","Operator":"2"}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51548,7 +51548,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51624,7 +51624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -51683,7 +51683,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -51742,7 +51742,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -51801,7 +51801,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -51860,7 +51860,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -51934,19 +51934,19 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" t="s">
-        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -51964,7 +51964,7 @@
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -52004,10 +52004,10 @@
         <v>{"data":[{"Type":11,"Value1":"8700001","Value2":"0","Operator":"2"}]}</v>
       </c>
       <c r="K2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" t="s">
         <v>230</v>
-      </c>
-      <c r="L2" t="s">
-        <v>231</v>
       </c>
       <c r="M2" s="4">
         <v>8700001</v>
